--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\OneDrive\Documents\programmin'\git stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693A785-7FEE-48D8-9BD1-5300E6D6F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84760AB-3461-43F9-85C8-94C5575457A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -65,9 +65,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Undiscloded amount of pie</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Leg mount</t>
   </si>
   <si>
-    <t>Ring brace</t>
-  </si>
-  <si>
     <t>Crossbeam</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>GRAND TOTAL</t>
   </si>
   <si>
-    <t>3D-Printed (assumes conversion rate of $X.XX/gram of PLA filament)</t>
-  </si>
-  <si>
     <t>Cardboard components</t>
   </si>
   <si>
@@ -150,6 +141,30 @@
   </si>
   <si>
     <t>Trifold board</t>
+  </si>
+  <si>
+    <t>3D-Printed</t>
+  </si>
+  <si>
+    <t>Ring joint</t>
+  </si>
+  <si>
+    <t>Motor strap</t>
+  </si>
+  <si>
+    <t>Undiscloded amount of dessert</t>
+  </si>
+  <si>
+    <t>gluesticks</t>
+  </si>
+  <si>
+    <t>Power supply</t>
+  </si>
+  <si>
+    <t>Assuming a cost of $.08 per gram</t>
+  </si>
+  <si>
+    <t>Quantity in grams</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,29 +281,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31437FF2-4952-4033-BCB8-0D830A45E084}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +649,7 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,7 +672,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -668,375 +681,409 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <f>(C3*D3)</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E8" si="0">(C4*D4)</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
         <v>2.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
         <f>SUM(E3:E8)</f>
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <f>(C11*D11)</f>
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7">
+        <f>(D11*(0.08))</f>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E20" si="1">(C12*D12)</f>
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E21" si="1">(D12*(0.08))</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10">
-        <f>SUM(E11:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8">
+        <f>SUM(E11:E21)</f>
+        <v>29.679999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
-        <f>(C23*D23)</f>
-        <v>20</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="6">
+        <v>20</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <f>(C24*D24)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="E25" s="12">
-        <f t="shared" ref="E25:E26" si="2">(C25*D25)</f>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <f>(C25*D25)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="12">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26:E27" si="2">(C26*D26)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10">
-        <f>SUM(E23:E26)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8">
+        <f>SUM(E24:E27)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="12"/>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="10">
-        <f>SUM(E29:E30)</f>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8">
+        <f>SUM(E30:E30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1047,110 +1094,108 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="9">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="9">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="9">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="9">
+      <c r="C36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="9">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
         <f>SUM(E33:E38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17">
-        <f>SUM(E31,E39,E27,E9)</f>
-        <v>75</v>
+      <c r="A40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12">
+        <f>SUM(E31,E39,E28,E9,E22)</f>
+        <v>122.67999999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:C21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\OneDrive\Documents\programmin'\git stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\Documents\cake\CAKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84760AB-3461-43F9-85C8-94C5575457A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7D9E6-610D-4D91-B375-1DEF0D34D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
+    <workbookView xWindow="28680" yWindow="405" windowWidth="25440" windowHeight="15990" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Category</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>Quantity in grams</t>
+  </si>
+  <si>
+    <t>Centralized Automatic Knife Engager</t>
+  </si>
+  <si>
+    <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>March - May 2024</t>
+  </si>
+  <si>
+    <t>Griffin Willingham</t>
+  </si>
+  <si>
+    <t>Cameron Strorer</t>
+  </si>
+  <si>
+    <t>Joseph Henson</t>
   </si>
 </sst>
 </file>
@@ -175,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +203,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -229,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -276,12 +301,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,6 +364,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31437FF2-4952-4033-BCB8-0D830A45E084}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +728,10 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -679,7 +757,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>28</v>
@@ -694,8 +772,11 @@
         <f>(C3*D3)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>33</v>
@@ -710,8 +791,11 @@
         <f t="shared" ref="E4:E8" si="0">(C4*D4)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>29</v>
@@ -726,8 +810,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>30</v>
@@ -742,8 +829,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>31</v>
@@ -758,8 +848,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>40</v>
@@ -774,8 +867,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -787,7 +883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -798,7 +894,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>11</v>
@@ -814,7 +910,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>12</v>
@@ -828,7 +924,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>13</v>
@@ -842,7 +938,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>36</v>
@@ -856,7 +952,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>15</v>
@@ -870,7 +966,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>16</v>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\Documents\cake\CAKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7D9E6-610D-4D91-B375-1DEF0D34D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5C6CE-69B3-48A1-8814-873A167AFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="405" windowWidth="25440" windowHeight="15990" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Joseph Henson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N/A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL (Not including 3D-printed materials)</t>
   </si>
 </sst>
 </file>
@@ -343,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,9 +371,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +385,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31437FF2-4952-4033-BCB8-0D830A45E084}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +740,7 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,7 +769,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>28</v>
@@ -772,7 +784,7 @@
         <f>(C3*D3)</f>
         <v>12</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -791,7 +803,7 @@
         <f t="shared" ref="E4:E8" si="0">(C4*D4)</f>
         <v>6</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -810,7 +822,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -829,7 +841,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -848,7 +860,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -867,7 +879,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -899,7 +911,7 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D11">
@@ -915,7 +927,7 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="19"/>
       <c r="D12">
         <v>55</v>
       </c>
@@ -929,7 +941,7 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="19"/>
       <c r="D13">
         <v>55</v>
       </c>
@@ -943,7 +955,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="19"/>
       <c r="D14">
         <v>19</v>
       </c>
@@ -957,7 +969,7 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="19"/>
       <c r="D15">
         <v>28</v>
       </c>
@@ -971,7 +983,7 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="19"/>
       <c r="D16">
         <v>5</v>
       </c>
@@ -985,7 +997,7 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="19"/>
       <c r="D17">
         <v>25</v>
       </c>
@@ -999,7 +1011,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="19"/>
       <c r="D18">
         <v>33</v>
       </c>
@@ -1013,7 +1025,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="19"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -1027,7 +1039,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="19"/>
       <c r="D20">
         <v>2</v>
       </c>
@@ -1041,7 +1053,7 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="19"/>
       <c r="D21">
         <v>54</v>
       </c>
@@ -1200,6 +1212,9 @@
       <c r="C33" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="D33" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="7">
         <v>0</v>
       </c>
@@ -1212,6 +1227,9 @@
       <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="D34" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
@@ -1224,6 +1242,9 @@
       <c r="C35" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
@@ -1236,6 +1257,9 @@
       <c r="C36" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="D36" s="20">
+        <v>12</v>
+      </c>
       <c r="E36" s="7">
         <v>0</v>
       </c>
@@ -1248,6 +1272,9 @@
       <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="D37" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="7">
         <v>0</v>
       </c>
@@ -1259,6 +1286,9 @@
       </c>
       <c r="C38" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="D38" s="20">
+        <v>1</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -1286,6 +1316,18 @@
       <c r="E40" s="12">
         <f>SUM(E31,E39,E28,E9,E22)</f>
         <v>122.67999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12">
+        <f>SUM(E31,E39,E28,E9)</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\Documents\cake\CAKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5C6CE-69B3-48A1-8814-873A167AFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A6AB4-2367-47C5-B065-7B98985963E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6D40954B-BCA4-4B3C-947E-861C695CA928}"/>
   </bookViews>
@@ -386,11 +386,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,7 +911,7 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D11">
@@ -927,7 +927,7 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12">
         <v>55</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13">
         <v>55</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14">
         <v>19</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15">
         <v>28</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16">
         <v>5</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17">
         <v>25</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18">
         <v>33</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20">
         <v>2</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21">
         <v>54</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="C33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="7">
@@ -1227,7 +1227,7 @@
       <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="7">
@@ -1242,7 +1242,7 @@
       <c r="C35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>1</v>
       </c>
       <c r="E35" s="7">
@@ -1257,7 +1257,7 @@
       <c r="C36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>12</v>
       </c>
       <c r="E36" s="7">
@@ -1272,7 +1272,7 @@
       <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="7">
@@ -1287,7 +1287,7 @@
       <c r="C38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>1</v>
       </c>
       <c r="E38" s="7">
